--- a/biology/Médecine/Xanthisme/Xanthisme.xlsx
+++ b/biology/Médecine/Xanthisme/Xanthisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le xanthisme ou xanthochroïsme (du grec Ξανθός / xanthós, « jaune », « blond » ou « fauve ») désigne un ensemble de phénotypes caractérisés par la couleur jaune des téguments sur toute la surface de l'anatomie de l'animal ou par zones (peau, pelage, plumage, œufs). Les espèces sont alors qualifiées de xanthiques ou de "gold" dans le langage commercial courant des espèces animales.
 L'opposé du xanthisme, qui est une carence ou une absence totale de pigment jaune, s'appelle l'axanthisme.
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause en est généralement génétique, mais peut aussi être l'alimentation. Certains gènes interfèrent avec la différenciation ou la migration des chromatophores et des mélanocytes issus de la crête neurale lors de l’embryogenèse, ce qui entraine une absence de pigmentation normale et / ou une production excessive d'autres pigments. Le xanthisme est souvent associé à l'absence de pigmentation rouge habituelle, qui se traduit par un remplacement par le jaune.
 </t>
@@ -543,7 +557,9 @@
           <t>Espèces animales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à d'autres dyschromies qui touchent l'ensemble du règne animal, le xanthisme atteint surtout les poissons et les oiseaux, dans une moindre mesure les reptiles et amphibiens.
 Une enquête de l'Université Cornell, à partir de l'observation des oiseaux au plumage anormal lors de leur visite aux mangeoires, indique que 4% d'entre eux peuvent être considérés xanthiques, contre 76% albinos.
@@ -575,7 +591,9 @@
           <t>Le xanthisme chez les oiseaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup d'oiseaux présentent un xanthisme génétique, en particulier ceux sélectionnés pour ces mutations génétiques en aviculture, notamment plusieurs espèces de perroquet dont la perruche ondulée aussi appelée "lutino". On parle aussi de spéciation xanthogénique.
 On compte aussi à l'état sauvage nombre d'oiseaux xanthiques, parmi lesquels la bergeronnette printanière, le pouillot siffleur, la paruline tigrée, le cardinal à poitrine rose, le gros-bec errant, le pic à ventre roux, le piranga écarlate, le cardinal rouge, le pic épeiche, la couturière à longue queue, le gonolek rouge et noir, la perruche de Sparrman, l'inséparable rosegorge, le nestor kéa...
@@ -609,18 +627,96 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oiseaux
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Inséparable
 			Inséparable rosegorge xanthique
 			Inséparable rosegorge normal
-Poissons
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xanthisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comparaison entre spécimens xanthiques et spécimens normaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Cryptoheros Sajica
 			Xanthiques, male et femelle
 			male de phénotype sauvage
 	Carassin/Poisson rouge
 			Carassin xanthique
 			Carassin commun sauvage
-Reptiles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xanthisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comparaison entre spécimens xanthiques et spécimens normaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Tortue de Floride
 			xanthique
 			normale
